--- a/Code/Results/Cases/Case_0_248/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_248/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9915005729541132</v>
+        <v>1.024039885159386</v>
       </c>
       <c r="D2">
-        <v>1.00011800131947</v>
+        <v>1.025619098519711</v>
       </c>
       <c r="E2">
-        <v>0.9990973696046878</v>
+        <v>1.024574542977473</v>
       </c>
       <c r="F2">
-        <v>0.9996663030062934</v>
+        <v>1.034344367757102</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040479278815592</v>
+        <v>1.030861816150708</v>
       </c>
       <c r="J2">
-        <v>1.013938506737626</v>
+        <v>1.029216730062773</v>
       </c>
       <c r="K2">
-        <v>1.011575692440545</v>
+        <v>1.028444139854746</v>
       </c>
       <c r="L2">
-        <v>1.010569293841961</v>
+        <v>1.027402644295856</v>
       </c>
       <c r="M2">
-        <v>1.011130288715621</v>
+        <v>1.037144111139605</v>
       </c>
       <c r="N2">
-        <v>1.015378415717558</v>
+        <v>1.030678335872274</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.99599273787187</v>
+        <v>1.024986486276833</v>
       </c>
       <c r="D3">
-        <v>1.003754365530838</v>
+        <v>1.026432725047172</v>
       </c>
       <c r="E3">
-        <v>1.002672637800847</v>
+        <v>1.025377938361743</v>
       </c>
       <c r="F3">
-        <v>1.004854391958194</v>
+        <v>1.035500464225372</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041433976456052</v>
+        <v>1.030995613492662</v>
       </c>
       <c r="J3">
-        <v>1.016593244225671</v>
+        <v>1.029802082348963</v>
       </c>
       <c r="K3">
-        <v>1.014339432882045</v>
+        <v>1.029065090571623</v>
       </c>
       <c r="L3">
-        <v>1.013271435566215</v>
+        <v>1.02801316990532</v>
       </c>
       <c r="M3">
-        <v>1.015425534466032</v>
+        <v>1.038108451761614</v>
       </c>
       <c r="N3">
-        <v>1.018036923237347</v>
+        <v>1.031264519425849</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9988392358598027</v>
+        <v>1.025599315039097</v>
       </c>
       <c r="D4">
-        <v>1.006064039610713</v>
+        <v>1.026959783217269</v>
       </c>
       <c r="E4">
-        <v>1.004944318510567</v>
+        <v>1.025898442474207</v>
       </c>
       <c r="F4">
-        <v>1.008142200893441</v>
+        <v>1.036248957963323</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042027178947671</v>
+        <v>1.031080776443965</v>
       </c>
       <c r="J4">
-        <v>1.018272680781573</v>
+        <v>1.030180566611908</v>
       </c>
       <c r="K4">
-        <v>1.016089823851997</v>
+        <v>1.029466826746031</v>
       </c>
       <c r="L4">
-        <v>1.01498343400584</v>
+        <v>1.028408224288188</v>
       </c>
       <c r="M4">
-        <v>1.018143340040259</v>
+        <v>1.038732293235059</v>
       </c>
       <c r="N4">
-        <v>1.019718744785792</v>
+        <v>1.031643541179859</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000022002879804</v>
+        <v>1.025857022854793</v>
       </c>
       <c r="D5">
-        <v>1.007025014754684</v>
+        <v>1.027181497982094</v>
       </c>
       <c r="E5">
-        <v>1.005889677466888</v>
+        <v>1.026117417725073</v>
       </c>
       <c r="F5">
-        <v>1.00950845609503</v>
+        <v>1.036563725705226</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042270805971906</v>
+        <v>1.031116240294867</v>
       </c>
       <c r="J5">
-        <v>1.018969819515215</v>
+        <v>1.030339614132392</v>
       </c>
       <c r="K5">
-        <v>1.016816894947547</v>
+        <v>1.029635701324173</v>
       </c>
       <c r="L5">
-        <v>1.015694705176156</v>
+        <v>1.028574305137942</v>
       </c>
       <c r="M5">
-        <v>1.019271704655017</v>
+        <v>1.03899451974487</v>
       </c>
       <c r="N5">
-        <v>1.020416873536399</v>
+        <v>1.031802814566065</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000219794121311</v>
+        <v>1.025900297485617</v>
       </c>
       <c r="D6">
-        <v>1.007185789564114</v>
+        <v>1.027218733015214</v>
       </c>
       <c r="E6">
-        <v>1.006047850791188</v>
+        <v>1.026154193708059</v>
       </c>
       <c r="F6">
-        <v>1.009736939464597</v>
+        <v>1.036616582513765</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042311377956729</v>
+        <v>1.031122174960792</v>
       </c>
       <c r="J6">
-        <v>1.019086358534745</v>
+        <v>1.030366314944576</v>
       </c>
       <c r="K6">
-        <v>1.016938465849967</v>
+        <v>1.029664055186884</v>
       </c>
       <c r="L6">
-        <v>1.015813642857844</v>
+        <v>1.028602190817994</v>
       </c>
       <c r="M6">
-        <v>1.019460344004839</v>
+        <v>1.039038546586736</v>
       </c>
       <c r="N6">
-        <v>1.020533578054704</v>
+        <v>1.031829553296465</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9988550940027034</v>
+        <v>1.025602758251268</v>
       </c>
       <c r="D7">
-        <v>1.006076919091461</v>
+        <v>1.026962745234031</v>
       </c>
       <c r="E7">
-        <v>1.004956987943242</v>
+        <v>1.025901367823358</v>
       </c>
       <c r="F7">
-        <v>1.00816051867885</v>
+        <v>1.036253163508604</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042030456760832</v>
+        <v>1.031081251644864</v>
       </c>
       <c r="J7">
-        <v>1.018282030571533</v>
+        <v>1.030182692077911</v>
       </c>
       <c r="K7">
-        <v>1.016099573191681</v>
+        <v>1.029469083317616</v>
       </c>
       <c r="L7">
-        <v>1.014992970902707</v>
+        <v>1.028410443469748</v>
       </c>
       <c r="M7">
-        <v>1.018158472429685</v>
+        <v>1.038735797261978</v>
       </c>
       <c r="N7">
-        <v>1.019728107853526</v>
+        <v>1.031645669664268</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9930315140288319</v>
+        <v>1.024359727890756</v>
       </c>
       <c r="D8">
-        <v>1.001356110994992</v>
+        <v>1.025893945118831</v>
       </c>
       <c r="E8">
-        <v>1.000314505056694</v>
+        <v>1.024845918193154</v>
       </c>
       <c r="F8">
-        <v>1.001434369803791</v>
+        <v>1.034734988554676</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040807082463252</v>
+        <v>1.030907325888465</v>
       </c>
       <c r="J8">
-        <v>1.014843806617384</v>
+        <v>1.029414609676055</v>
       </c>
       <c r="K8">
-        <v>1.012517744177342</v>
+        <v>1.028654005073875</v>
       </c>
       <c r="L8">
-        <v>1.011490217856038</v>
+        <v>1.027608973052063</v>
       </c>
       <c r="M8">
-        <v>1.012594946632005</v>
+        <v>1.03747004579265</v>
       </c>
       <c r="N8">
-        <v>1.016285001226992</v>
+        <v>1.030876496497302</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9822835450886678</v>
+        <v>1.022171789231076</v>
       </c>
       <c r="D9">
-        <v>0.9926890263515091</v>
+        <v>1.024015130614591</v>
       </c>
       <c r="E9">
-        <v>0.9917978294296824</v>
+        <v>1.022991137150457</v>
       </c>
       <c r="F9">
-        <v>0.9890214619837531</v>
+        <v>1.032063004569645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03845746281201</v>
+        <v>1.030590043512438</v>
       </c>
       <c r="J9">
-        <v>1.008477811481574</v>
+        <v>1.028059055891224</v>
       </c>
       <c r="K9">
-        <v>1.005901843244037</v>
+        <v>1.027217306720418</v>
       </c>
       <c r="L9">
-        <v>1.005025397803643</v>
+        <v>1.026196743789224</v>
       </c>
       <c r="M9">
-        <v>1.002295205567913</v>
+        <v>1.035238479047147</v>
       </c>
       <c r="N9">
-        <v>1.0099099656479</v>
+        <v>1.029519017670612</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9747544328210389</v>
+        <v>1.020714843218652</v>
       </c>
       <c r="D10">
-        <v>0.986651669599414</v>
+        <v>1.022765710381692</v>
       </c>
       <c r="E10">
-        <v>0.9858699744338462</v>
+        <v>1.021758082840325</v>
       </c>
       <c r="F10">
-        <v>0.9803238215816585</v>
+        <v>1.030283856132507</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03675193221769</v>
+        <v>1.030371282341967</v>
       </c>
       <c r="J10">
-        <v>1.004006765032812</v>
+        <v>1.027153988862461</v>
       </c>
       <c r="K10">
-        <v>1.001266188494857</v>
+        <v>1.026259269613481</v>
       </c>
       <c r="L10">
-        <v>1.000499125104784</v>
+        <v>1.025255349949011</v>
       </c>
       <c r="M10">
-        <v>0.9950576615711595</v>
+        <v>1.033750002908995</v>
       </c>
       <c r="N10">
-        <v>1.005432569800344</v>
+        <v>1.028612665342855</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9713989500151259</v>
+        <v>1.02008437565198</v>
       </c>
       <c r="D11">
-        <v>0.9839698523117032</v>
+        <v>1.022225451674446</v>
       </c>
       <c r="E11">
-        <v>0.9832379828337166</v>
+        <v>1.021224992693616</v>
       </c>
       <c r="F11">
-        <v>0.9764463457733408</v>
+        <v>1.029513979813175</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035978280771531</v>
+        <v>1.03027484402769</v>
       </c>
       <c r="J11">
-        <v>1.002011945393326</v>
+        <v>1.026761770058727</v>
       </c>
       <c r="K11">
-        <v>0.9992005405178567</v>
+        <v>1.025844382346254</v>
       </c>
       <c r="L11">
-        <v>0.9984830838918511</v>
+        <v>1.024847748000185</v>
       </c>
       <c r="M11">
-        <v>0.9918265521132816</v>
+        <v>1.033105295850557</v>
       </c>
       <c r="N11">
-        <v>1.003434917288161</v>
+        <v>1.028219889543432</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9701374194855309</v>
+        <v>1.019850252520885</v>
       </c>
       <c r="D12">
-        <v>0.9829629897371545</v>
+        <v>1.022024889028964</v>
       </c>
       <c r="E12">
-        <v>0.9822500105538806</v>
+        <v>1.021027105130656</v>
       </c>
       <c r="F12">
-        <v>0.9749883183846613</v>
+        <v>1.02922808938136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035685433439173</v>
+        <v>1.030238765492769</v>
       </c>
       <c r="J12">
-        <v>1.001261684653435</v>
+        <v>1.026616035300025</v>
       </c>
       <c r="K12">
-        <v>0.998424036378055</v>
+        <v>1.025690267851332</v>
       </c>
       <c r="L12">
-        <v>0.9977253605619973</v>
+        <v>1.024696351436395</v>
       </c>
       <c r="M12">
-        <v>0.9906109198623606</v>
+        <v>1.032865794806303</v>
       </c>
       <c r="N12">
-        <v>1.002683591091964</v>
+        <v>1.028073947824657</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9704087219122042</v>
+        <v>1.019900469976376</v>
       </c>
       <c r="D13">
-        <v>0.9831794595396721</v>
+        <v>1.022067905244748</v>
       </c>
       <c r="E13">
-        <v>0.9824624106510056</v>
+        <v>1.021069546972217</v>
       </c>
       <c r="F13">
-        <v>0.9753018913645901</v>
+        <v>1.029289410417672</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035748501462367</v>
+        <v>1.030246516087453</v>
       </c>
       <c r="J13">
-        <v>1.001423046509986</v>
+        <v>1.02664729802711</v>
       </c>
       <c r="K13">
-        <v>0.9985910246033582</v>
+        <v>1.0257233262334</v>
       </c>
       <c r="L13">
-        <v>0.9978883038936682</v>
+        <v>1.024728826276934</v>
       </c>
       <c r="M13">
-        <v>0.9908723908251169</v>
+        <v>1.032917169867054</v>
       </c>
       <c r="N13">
-        <v>1.002845182100859</v>
+        <v>1.0281052549484</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9712949856978804</v>
+        <v>1.020065021721628</v>
       </c>
       <c r="D14">
-        <v>0.9838868467237778</v>
+        <v>1.022208870782364</v>
       </c>
       <c r="E14">
-        <v>0.9831565307888347</v>
+        <v>1.021208632672324</v>
       </c>
       <c r="F14">
-        <v>0.9763261933344874</v>
+        <v>1.029490346473535</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035954186884968</v>
+        <v>1.030271867006474</v>
       </c>
       <c r="J14">
-        <v>1.001950121006491</v>
+        <v>1.026749724537767</v>
       </c>
       <c r="K14">
-        <v>0.9991365455200402</v>
+        <v>1.02583164333025</v>
       </c>
       <c r="L14">
-        <v>0.998420633980349</v>
+        <v>1.024835233407582</v>
       </c>
       <c r="M14">
-        <v>0.9917263879857203</v>
+        <v>1.03308549919369</v>
       </c>
       <c r="N14">
-        <v>1.003373005103605</v>
+        <v>1.028207826916451</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9718390079434167</v>
+        <v>1.020166415528633</v>
       </c>
       <c r="D15">
-        <v>0.9843212538894186</v>
+        <v>1.022295739372604</v>
       </c>
       <c r="E15">
-        <v>0.9835828150618662</v>
+        <v>1.021294344671615</v>
       </c>
       <c r="F15">
-        <v>0.9769549139324307</v>
+        <v>1.029614159862042</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036080184286456</v>
+        <v>1.0302874524931</v>
       </c>
       <c r="J15">
-        <v>1.002273622939772</v>
+        <v>1.026812826652775</v>
       </c>
       <c r="K15">
-        <v>0.999471421511724</v>
+        <v>1.025898380177919</v>
       </c>
       <c r="L15">
-        <v>0.998747430209979</v>
+        <v>1.024900795031468</v>
       </c>
       <c r="M15">
-        <v>0.9922504894274728</v>
+        <v>1.033189208718045</v>
       </c>
       <c r="N15">
-        <v>1.003696966446737</v>
+        <v>1.028271018643699</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9749750470225776</v>
+        <v>1.020756693742031</v>
       </c>
       <c r="D16">
-        <v>0.9868281818040695</v>
+        <v>1.022801581431596</v>
       </c>
       <c r="E16">
-        <v>0.9860432323860189</v>
+        <v>1.021793479867641</v>
       </c>
       <c r="F16">
-        <v>0.9805787247400821</v>
+        <v>1.030334960945479</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036802519830875</v>
+        <v>1.030377646568252</v>
       </c>
       <c r="J16">
-        <v>1.004137876903743</v>
+        <v>1.027180012472646</v>
       </c>
       <c r="K16">
-        <v>1.001402010283881</v>
+        <v>1.026286803307341</v>
       </c>
       <c r="L16">
-        <v>1.000631703395036</v>
+        <v>1.025282401799533</v>
       </c>
       <c r="M16">
-        <v>0.995269980555483</v>
+        <v>1.033792786049031</v>
       </c>
       <c r="N16">
-        <v>1.005563867865171</v>
+        <v>1.028638725909551</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9769161106604568</v>
+        <v>1.021127067060154</v>
       </c>
       <c r="D17">
-        <v>0.9883822296151618</v>
+        <v>1.023119083919991</v>
       </c>
       <c r="E17">
-        <v>0.9875687647978465</v>
+        <v>1.022106797301689</v>
       </c>
       <c r="F17">
-        <v>0.9828213323240861</v>
+        <v>1.03078723592689</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037246076821646</v>
+        <v>1.030433764481227</v>
       </c>
       <c r="J17">
-        <v>1.005291211635931</v>
+        <v>1.02741025355279</v>
       </c>
       <c r="K17">
-        <v>1.002597073672775</v>
+        <v>1.026530437784669</v>
       </c>
       <c r="L17">
-        <v>1.001798326894497</v>
+        <v>1.025521781630646</v>
       </c>
       <c r="M17">
-        <v>0.9971374228216712</v>
+        <v>1.034171344055468</v>
       </c>
       <c r="N17">
-        <v>1.006718840464968</v>
+        <v>1.028869293958438</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.978039161946482</v>
+        <v>1.021343138075916</v>
       </c>
       <c r="D18">
-        <v>0.9892821966576504</v>
+        <v>1.023304349899348</v>
       </c>
       <c r="E18">
-        <v>0.9884523304086865</v>
+        <v>1.022289630119619</v>
       </c>
       <c r="F18">
-        <v>0.9841187385335235</v>
+        <v>1.031051089174427</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037501419258339</v>
+        <v>1.030466331779849</v>
       </c>
       <c r="J18">
-        <v>1.005958288958517</v>
+        <v>1.027544518474505</v>
       </c>
       <c r="K18">
-        <v>1.003288533978288</v>
+        <v>1.026672540693903</v>
       </c>
       <c r="L18">
-        <v>1.002473413911579</v>
+        <v>1.02566141046633</v>
       </c>
       <c r="M18">
-        <v>0.9982173522001507</v>
+        <v>1.034392132488553</v>
       </c>
       <c r="N18">
-        <v>1.007386865113867</v>
+        <v>1.029003749551743</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.978420567694273</v>
+        <v>1.021416819226461</v>
       </c>
       <c r="D19">
-        <v>0.9895879789278674</v>
+        <v>1.023367533016768</v>
       </c>
       <c r="E19">
-        <v>0.9887525588166125</v>
+        <v>1.022351984932342</v>
       </c>
       <c r="F19">
-        <v>0.98455934096477</v>
+        <v>1.031141064614558</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037587917446761</v>
+        <v>1.030477408333477</v>
       </c>
       <c r="J19">
-        <v>1.006184801243552</v>
+        <v>1.027590294097778</v>
       </c>
       <c r="K19">
-        <v>1.003523367645931</v>
+        <v>1.026720993249568</v>
       </c>
       <c r="L19">
-        <v>1.00270270070456</v>
+        <v>1.025709020713578</v>
       </c>
       <c r="M19">
-        <v>0.9985840244664506</v>
+        <v>1.034467412578434</v>
       </c>
       <c r="N19">
-        <v>1.007613699072327</v>
+        <v>1.029049590181651</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9767088039420587</v>
+        <v>1.021087325519392</v>
       </c>
       <c r="D20">
-        <v>0.9882161694530494</v>
+        <v>1.023085011437475</v>
       </c>
       <c r="E20">
-        <v>0.9874057400187533</v>
+        <v>1.022073173017454</v>
       </c>
       <c r="F20">
-        <v>0.9825818324917955</v>
+        <v>1.030738706044831</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037198838025861</v>
+        <v>1.030427760658627</v>
       </c>
       <c r="J20">
-        <v>1.005168056651088</v>
+        <v>1.02738555404532</v>
       </c>
       <c r="K20">
-        <v>1.002469437127006</v>
+        <v>1.026504298618483</v>
       </c>
       <c r="L20">
-        <v>1.001673719296147</v>
+        <v>1.025496098162567</v>
       </c>
       <c r="M20">
-        <v>0.9969380336927121</v>
+        <v>1.034130730230855</v>
       </c>
       <c r="N20">
-        <v>1.00659551058592</v>
+        <v>1.028844559374834</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9710344284515844</v>
+        <v>1.020016563656862</v>
       </c>
       <c r="D21">
-        <v>0.9836788393471795</v>
+        <v>1.02216735680369</v>
       </c>
       <c r="E21">
-        <v>0.9829524194849192</v>
+        <v>1.021167671917434</v>
       </c>
       <c r="F21">
-        <v>0.9760250609023544</v>
+        <v>1.029431173719434</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035893770563972</v>
+        <v>1.030264408885728</v>
       </c>
       <c r="J21">
-        <v>1.001795171162845</v>
+        <v>1.026719563781765</v>
       </c>
       <c r="K21">
-        <v>0.9989761618750455</v>
+        <v>1.025799746829142</v>
       </c>
       <c r="L21">
-        <v>0.9982641247678131</v>
+        <v>1.024803899016931</v>
       </c>
       <c r="M21">
-        <v>0.9914753408823535</v>
+        <v>1.03303593117946</v>
       </c>
       <c r="N21">
-        <v>1.003217835213409</v>
+        <v>1.028177623328715</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9673785833453129</v>
+        <v>1.019343684031876</v>
       </c>
       <c r="D22">
-        <v>0.9807637318642676</v>
+        <v>1.021591048065582</v>
       </c>
       <c r="E22">
-        <v>0.9800923584879377</v>
+        <v>1.02059907611849</v>
       </c>
       <c r="F22">
-        <v>0.9717992313996719</v>
+        <v>1.028609515351019</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035041415124764</v>
+        <v>1.030160216098297</v>
       </c>
       <c r="J22">
-        <v>0.9996204690805542</v>
+        <v>1.026300556332925</v>
       </c>
       <c r="K22">
-        <v>0.9967261434766298</v>
+        <v>1.025356727658614</v>
       </c>
       <c r="L22">
-        <v>0.9960687814006055</v>
+        <v>1.024368714953029</v>
       </c>
       <c r="M22">
-        <v>0.9879508447893731</v>
+        <v>1.032347424756798</v>
       </c>
       <c r="N22">
-        <v>1.001040044804719</v>
+        <v>1.027758020841237</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.969325265373433</v>
+        <v>1.01970035681125</v>
       </c>
       <c r="D23">
-        <v>0.9823151891899321</v>
+        <v>1.021896497594479</v>
       </c>
       <c r="E23">
-        <v>0.9816144162592749</v>
+        <v>1.020900430079156</v>
       </c>
       <c r="F23">
-        <v>0.9740495841275101</v>
+        <v>1.029045050447016</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035496350138334</v>
+        <v>1.03021559150378</v>
       </c>
       <c r="J23">
-        <v>1.000778603549249</v>
+        <v>1.026522705758445</v>
       </c>
       <c r="K23">
-        <v>0.9979241693795931</v>
+        <v>1.025591583995754</v>
       </c>
       <c r="L23">
-        <v>0.997237621374447</v>
+        <v>1.024599411251517</v>
       </c>
       <c r="M23">
-        <v>0.9898280683449084</v>
+        <v>1.032712430480637</v>
       </c>
       <c r="N23">
-        <v>1.002199823957199</v>
+        <v>1.027980485744421</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9768025051038441</v>
+        <v>1.021105282891948</v>
       </c>
       <c r="D24">
-        <v>0.9882912248853775</v>
+        <v>1.023100407102839</v>
       </c>
       <c r="E24">
-        <v>0.987479423179462</v>
+        <v>1.022088366136875</v>
       </c>
       <c r="F24">
-        <v>0.9826900850511282</v>
+        <v>1.030760634458288</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037220193625217</v>
+        <v>1.030430474038488</v>
       </c>
       <c r="J24">
-        <v>1.00522372249375</v>
+        <v>1.027396714784776</v>
       </c>
       <c r="K24">
-        <v>1.002527127860049</v>
+        <v>1.026516109797899</v>
       </c>
       <c r="L24">
-        <v>1.001730040714446</v>
+        <v>1.025507703408179</v>
       </c>
       <c r="M24">
-        <v>0.9970281577908929</v>
+        <v>1.034149081925602</v>
       </c>
       <c r="N24">
-        <v>1.006651255480464</v>
+        <v>1.02885573596382</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9851234091658664</v>
+        <v>1.022737130649063</v>
       </c>
       <c r="D25">
-        <v>0.9949734426954485</v>
+        <v>1.024500303546244</v>
       </c>
       <c r="E25">
-        <v>0.9940418047666997</v>
+        <v>1.023470036432208</v>
       </c>
       <c r="F25">
-        <v>0.9923014108661244</v>
+        <v>1.032753393243794</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039088736061718</v>
+        <v>1.030673346376403</v>
       </c>
       <c r="J25">
-        <v>1.010162015706155</v>
+        <v>1.028409742737421</v>
       </c>
       <c r="K25">
-        <v>1.007650293895606</v>
+        <v>1.027588773211445</v>
       </c>
       <c r="L25">
-        <v>1.006733323602164</v>
+        <v>1.026561826235443</v>
       </c>
       <c r="M25">
-        <v>1.005020424814356</v>
+        <v>1.035815528029309</v>
       </c>
       <c r="N25">
-        <v>1.01159656163566</v>
+        <v>1.029870202532355</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_248/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_248/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024039885159386</v>
+        <v>0.9915005729541133</v>
       </c>
       <c r="D2">
-        <v>1.025619098519711</v>
+        <v>1.000118001319469</v>
       </c>
       <c r="E2">
-        <v>1.024574542977473</v>
+        <v>0.9990973696046878</v>
       </c>
       <c r="F2">
-        <v>1.034344367757102</v>
+        <v>0.9996663030062928</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030861816150708</v>
+        <v>1.040479278815592</v>
       </c>
       <c r="J2">
-        <v>1.029216730062773</v>
+        <v>1.013938506737626</v>
       </c>
       <c r="K2">
-        <v>1.028444139854746</v>
+        <v>1.011575692440545</v>
       </c>
       <c r="L2">
-        <v>1.027402644295856</v>
+        <v>1.010569293841961</v>
       </c>
       <c r="M2">
-        <v>1.037144111139605</v>
+        <v>1.011130288715621</v>
       </c>
       <c r="N2">
-        <v>1.030678335872274</v>
+        <v>1.015378415717558</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024986486276833</v>
+        <v>0.9959927378718697</v>
       </c>
       <c r="D3">
-        <v>1.026432725047172</v>
+        <v>1.003754365530838</v>
       </c>
       <c r="E3">
-        <v>1.025377938361743</v>
+        <v>1.002672637800847</v>
       </c>
       <c r="F3">
-        <v>1.035500464225372</v>
+        <v>1.004854391958194</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030995613492662</v>
+        <v>1.041433976456052</v>
       </c>
       <c r="J3">
-        <v>1.029802082348963</v>
+        <v>1.016593244225671</v>
       </c>
       <c r="K3">
-        <v>1.029065090571623</v>
+        <v>1.014339432882045</v>
       </c>
       <c r="L3">
-        <v>1.02801316990532</v>
+        <v>1.013271435566215</v>
       </c>
       <c r="M3">
-        <v>1.038108451761614</v>
+        <v>1.015425534466032</v>
       </c>
       <c r="N3">
-        <v>1.031264519425849</v>
+        <v>1.018036923237346</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025599315039097</v>
+        <v>0.9988392358598013</v>
       </c>
       <c r="D4">
-        <v>1.026959783217269</v>
+        <v>1.006064039610712</v>
       </c>
       <c r="E4">
-        <v>1.025898442474207</v>
+        <v>1.004944318510566</v>
       </c>
       <c r="F4">
-        <v>1.036248957963323</v>
+        <v>1.00814220089344</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031080776443965</v>
+        <v>1.042027178947671</v>
       </c>
       <c r="J4">
-        <v>1.030180566611908</v>
+        <v>1.018272680781572</v>
       </c>
       <c r="K4">
-        <v>1.029466826746031</v>
+        <v>1.016089823851995</v>
       </c>
       <c r="L4">
-        <v>1.028408224288188</v>
+        <v>1.014983434005839</v>
       </c>
       <c r="M4">
-        <v>1.038732293235059</v>
+        <v>1.018143340040258</v>
       </c>
       <c r="N4">
-        <v>1.031643541179859</v>
+        <v>1.019718744785791</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025857022854793</v>
+        <v>1.000022002879805</v>
       </c>
       <c r="D5">
-        <v>1.027181497982094</v>
+        <v>1.007025014754684</v>
       </c>
       <c r="E5">
-        <v>1.026117417725073</v>
+        <v>1.005889677466888</v>
       </c>
       <c r="F5">
-        <v>1.036563725705226</v>
+        <v>1.00950845609503</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031116240294867</v>
+        <v>1.042270805971906</v>
       </c>
       <c r="J5">
-        <v>1.030339614132392</v>
+        <v>1.018969819515216</v>
       </c>
       <c r="K5">
-        <v>1.029635701324173</v>
+        <v>1.016816894947547</v>
       </c>
       <c r="L5">
-        <v>1.028574305137942</v>
+        <v>1.015694705176157</v>
       </c>
       <c r="M5">
-        <v>1.03899451974487</v>
+        <v>1.019271704655017</v>
       </c>
       <c r="N5">
-        <v>1.031802814566065</v>
+        <v>1.020416873536399</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025900297485617</v>
+        <v>1.00021979412131</v>
       </c>
       <c r="D6">
-        <v>1.027218733015214</v>
+        <v>1.007185789564113</v>
       </c>
       <c r="E6">
-        <v>1.026154193708059</v>
+        <v>1.006047850791187</v>
       </c>
       <c r="F6">
-        <v>1.036616582513765</v>
+        <v>1.009736939464596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031122174960792</v>
+        <v>1.042311377956729</v>
       </c>
       <c r="J6">
-        <v>1.030366314944576</v>
+        <v>1.019086358534744</v>
       </c>
       <c r="K6">
-        <v>1.029664055186884</v>
+        <v>1.016938465849966</v>
       </c>
       <c r="L6">
-        <v>1.028602190817994</v>
+        <v>1.015813642857842</v>
       </c>
       <c r="M6">
-        <v>1.039038546586736</v>
+        <v>1.019460344004838</v>
       </c>
       <c r="N6">
-        <v>1.031829553296465</v>
+        <v>1.020533578054702</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025602758251268</v>
+        <v>0.9988550940027037</v>
       </c>
       <c r="D7">
-        <v>1.026962745234031</v>
+        <v>1.006076919091461</v>
       </c>
       <c r="E7">
-        <v>1.025901367823358</v>
+        <v>1.004956987943242</v>
       </c>
       <c r="F7">
-        <v>1.036253163508604</v>
+        <v>1.00816051867885</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031081251644864</v>
+        <v>1.042030456760832</v>
       </c>
       <c r="J7">
-        <v>1.030182692077911</v>
+        <v>1.018282030571533</v>
       </c>
       <c r="K7">
-        <v>1.029469083317616</v>
+        <v>1.016099573191682</v>
       </c>
       <c r="L7">
-        <v>1.028410443469748</v>
+        <v>1.014992970902708</v>
       </c>
       <c r="M7">
-        <v>1.038735797261978</v>
+        <v>1.018158472429685</v>
       </c>
       <c r="N7">
-        <v>1.031645669664268</v>
+        <v>1.019728107853526</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024359727890756</v>
+        <v>0.9930315140288319</v>
       </c>
       <c r="D8">
-        <v>1.025893945118831</v>
+        <v>1.001356110994992</v>
       </c>
       <c r="E8">
-        <v>1.024845918193154</v>
+        <v>1.000314505056694</v>
       </c>
       <c r="F8">
-        <v>1.034734988554676</v>
+        <v>1.001434369803791</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030907325888465</v>
+        <v>1.040807082463252</v>
       </c>
       <c r="J8">
-        <v>1.029414609676055</v>
+        <v>1.014843806617384</v>
       </c>
       <c r="K8">
-        <v>1.028654005073875</v>
+        <v>1.012517744177342</v>
       </c>
       <c r="L8">
-        <v>1.027608973052063</v>
+        <v>1.011490217856038</v>
       </c>
       <c r="M8">
-        <v>1.03747004579265</v>
+        <v>1.012594946632005</v>
       </c>
       <c r="N8">
-        <v>1.030876496497302</v>
+        <v>1.016285001226992</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022171789231076</v>
+        <v>0.9822835450886673</v>
       </c>
       <c r="D9">
-        <v>1.024015130614591</v>
+        <v>0.9926890263515082</v>
       </c>
       <c r="E9">
-        <v>1.022991137150457</v>
+        <v>0.9917978294296821</v>
       </c>
       <c r="F9">
-        <v>1.032063004569645</v>
+        <v>0.989021461983752</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030590043512438</v>
+        <v>1.03845746281201</v>
       </c>
       <c r="J9">
-        <v>1.028059055891224</v>
+        <v>1.008477811481574</v>
       </c>
       <c r="K9">
-        <v>1.027217306720418</v>
+        <v>1.005901843244037</v>
       </c>
       <c r="L9">
-        <v>1.026196743789224</v>
+        <v>1.005025397803643</v>
       </c>
       <c r="M9">
-        <v>1.035238479047147</v>
+        <v>1.002295205567912</v>
       </c>
       <c r="N9">
-        <v>1.029519017670612</v>
+        <v>1.009909965647899</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020714843218652</v>
+        <v>0.9747544328210388</v>
       </c>
       <c r="D10">
-        <v>1.022765710381692</v>
+        <v>0.9866516695994139</v>
       </c>
       <c r="E10">
-        <v>1.021758082840325</v>
+        <v>0.9858699744338457</v>
       </c>
       <c r="F10">
-        <v>1.030283856132507</v>
+        <v>0.9803238215816586</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030371282341967</v>
+        <v>1.03675193221769</v>
       </c>
       <c r="J10">
-        <v>1.027153988862461</v>
+        <v>1.004006765032812</v>
       </c>
       <c r="K10">
-        <v>1.026259269613481</v>
+        <v>1.001266188494857</v>
       </c>
       <c r="L10">
-        <v>1.025255349949011</v>
+        <v>1.000499125104784</v>
       </c>
       <c r="M10">
-        <v>1.033750002908995</v>
+        <v>0.9950576615711596</v>
       </c>
       <c r="N10">
-        <v>1.028612665342855</v>
+        <v>1.005432569800344</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02008437565198</v>
+        <v>0.9713989500151263</v>
       </c>
       <c r="D11">
-        <v>1.022225451674446</v>
+        <v>0.9839698523117035</v>
       </c>
       <c r="E11">
-        <v>1.021224992693616</v>
+        <v>0.9832379828337162</v>
       </c>
       <c r="F11">
-        <v>1.029513979813175</v>
+        <v>0.9764463457733412</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03027484402769</v>
+        <v>1.035978280771531</v>
       </c>
       <c r="J11">
-        <v>1.026761770058727</v>
+        <v>1.002011945393326</v>
       </c>
       <c r="K11">
-        <v>1.025844382346254</v>
+        <v>0.9992005405178571</v>
       </c>
       <c r="L11">
-        <v>1.024847748000185</v>
+        <v>0.9984830838918511</v>
       </c>
       <c r="M11">
-        <v>1.033105295850557</v>
+        <v>0.9918265521132821</v>
       </c>
       <c r="N11">
-        <v>1.028219889543432</v>
+        <v>1.00343491728816</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019850252520885</v>
+        <v>0.9701374194855299</v>
       </c>
       <c r="D12">
-        <v>1.022024889028964</v>
+        <v>0.9829629897371538</v>
       </c>
       <c r="E12">
-        <v>1.021027105130656</v>
+        <v>0.9822500105538798</v>
       </c>
       <c r="F12">
-        <v>1.02922808938136</v>
+        <v>0.9749883183846607</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030238765492769</v>
+        <v>1.035685433439173</v>
       </c>
       <c r="J12">
-        <v>1.026616035300025</v>
+        <v>1.001261684653435</v>
       </c>
       <c r="K12">
-        <v>1.025690267851332</v>
+        <v>0.9984240363780542</v>
       </c>
       <c r="L12">
-        <v>1.024696351436395</v>
+        <v>0.9977253605619967</v>
       </c>
       <c r="M12">
-        <v>1.032865794806303</v>
+        <v>0.9906109198623601</v>
       </c>
       <c r="N12">
-        <v>1.028073947824657</v>
+        <v>1.002683591091963</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019900469976376</v>
+        <v>0.9704087219122032</v>
       </c>
       <c r="D13">
-        <v>1.022067905244748</v>
+        <v>0.9831794595396716</v>
       </c>
       <c r="E13">
-        <v>1.021069546972217</v>
+        <v>0.9824624106510048</v>
       </c>
       <c r="F13">
-        <v>1.029289410417672</v>
+        <v>0.9753018913645894</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030246516087453</v>
+        <v>1.035748501462366</v>
       </c>
       <c r="J13">
-        <v>1.02664729802711</v>
+        <v>1.001423046509985</v>
       </c>
       <c r="K13">
-        <v>1.0257233262334</v>
+        <v>0.9985910246033577</v>
       </c>
       <c r="L13">
-        <v>1.024728826276934</v>
+        <v>0.9978883038936676</v>
       </c>
       <c r="M13">
-        <v>1.032917169867054</v>
+        <v>0.9908723908251162</v>
       </c>
       <c r="N13">
-        <v>1.0281052549484</v>
+        <v>1.002845182100858</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020065021721628</v>
+        <v>0.9712949856978799</v>
       </c>
       <c r="D14">
-        <v>1.022208870782364</v>
+        <v>0.9838868467237772</v>
       </c>
       <c r="E14">
-        <v>1.021208632672324</v>
+        <v>0.983156530788834</v>
       </c>
       <c r="F14">
-        <v>1.029490346473535</v>
+        <v>0.9763261933344871</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030271867006474</v>
+        <v>1.035954186884967</v>
       </c>
       <c r="J14">
-        <v>1.026749724537767</v>
+        <v>1.00195012100649</v>
       </c>
       <c r="K14">
-        <v>1.02583164333025</v>
+        <v>0.9991365455200395</v>
       </c>
       <c r="L14">
-        <v>1.024835233407582</v>
+        <v>0.9984206339803486</v>
       </c>
       <c r="M14">
-        <v>1.03308549919369</v>
+        <v>0.99172638798572</v>
       </c>
       <c r="N14">
-        <v>1.028207826916451</v>
+        <v>1.003373005103604</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020166415528633</v>
+        <v>0.9718390079434162</v>
       </c>
       <c r="D15">
-        <v>1.022295739372604</v>
+        <v>0.9843212538894177</v>
       </c>
       <c r="E15">
-        <v>1.021294344671615</v>
+        <v>0.9835828150618657</v>
       </c>
       <c r="F15">
-        <v>1.029614159862042</v>
+        <v>0.9769549139324303</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0302874524931</v>
+        <v>1.036080184286456</v>
       </c>
       <c r="J15">
-        <v>1.026812826652775</v>
+        <v>1.002273622939771</v>
       </c>
       <c r="K15">
-        <v>1.025898380177919</v>
+        <v>0.9994714215117234</v>
       </c>
       <c r="L15">
-        <v>1.024900795031468</v>
+        <v>0.9987474302099786</v>
       </c>
       <c r="M15">
-        <v>1.033189208718045</v>
+        <v>0.9922504894274724</v>
       </c>
       <c r="N15">
-        <v>1.028271018643699</v>
+        <v>1.003696966446737</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020756693742031</v>
+        <v>0.9749750470225769</v>
       </c>
       <c r="D16">
-        <v>1.022801581431596</v>
+        <v>0.9868281818040686</v>
       </c>
       <c r="E16">
-        <v>1.021793479867641</v>
+        <v>0.9860432323860182</v>
       </c>
       <c r="F16">
-        <v>1.030334960945479</v>
+        <v>0.9805787247400813</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030377646568252</v>
+        <v>1.036802519830875</v>
       </c>
       <c r="J16">
-        <v>1.027180012472646</v>
+        <v>1.004137876903742</v>
       </c>
       <c r="K16">
-        <v>1.026286803307341</v>
+        <v>1.00140201028388</v>
       </c>
       <c r="L16">
-        <v>1.025282401799533</v>
+        <v>1.000631703395036</v>
       </c>
       <c r="M16">
-        <v>1.033792786049031</v>
+        <v>0.9952699805554823</v>
       </c>
       <c r="N16">
-        <v>1.028638725909551</v>
+        <v>1.00556386786517</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021127067060154</v>
+        <v>0.9769161106604571</v>
       </c>
       <c r="D17">
-        <v>1.023119083919991</v>
+        <v>0.9883822296151619</v>
       </c>
       <c r="E17">
-        <v>1.022106797301689</v>
+        <v>0.9875687647978471</v>
       </c>
       <c r="F17">
-        <v>1.03078723592689</v>
+        <v>0.9828213323240863</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030433764481227</v>
+        <v>1.037246076821646</v>
       </c>
       <c r="J17">
-        <v>1.02741025355279</v>
+        <v>1.005291211635931</v>
       </c>
       <c r="K17">
-        <v>1.026530437784669</v>
+        <v>1.002597073672775</v>
       </c>
       <c r="L17">
-        <v>1.025521781630646</v>
+        <v>1.001798326894498</v>
       </c>
       <c r="M17">
-        <v>1.034171344055468</v>
+        <v>0.9971374228216712</v>
       </c>
       <c r="N17">
-        <v>1.028869293958438</v>
+        <v>1.006718840464968</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021343138075916</v>
+        <v>0.9780391619464812</v>
       </c>
       <c r="D18">
-        <v>1.023304349899348</v>
+        <v>0.9892821966576497</v>
       </c>
       <c r="E18">
-        <v>1.022289630119619</v>
+        <v>0.9884523304086855</v>
       </c>
       <c r="F18">
-        <v>1.031051089174427</v>
+        <v>0.9841187385335231</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030466331779849</v>
+        <v>1.037501419258339</v>
       </c>
       <c r="J18">
-        <v>1.027544518474505</v>
+        <v>1.005958288958517</v>
       </c>
       <c r="K18">
-        <v>1.026672540693903</v>
+        <v>1.003288533978288</v>
       </c>
       <c r="L18">
-        <v>1.02566141046633</v>
+        <v>1.002473413911578</v>
       </c>
       <c r="M18">
-        <v>1.034392132488553</v>
+        <v>0.9982173522001503</v>
       </c>
       <c r="N18">
-        <v>1.029003749551743</v>
+        <v>1.007386865113866</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021416819226461</v>
+        <v>0.9784205676942729</v>
       </c>
       <c r="D19">
-        <v>1.023367533016768</v>
+        <v>0.9895879789278678</v>
       </c>
       <c r="E19">
-        <v>1.022351984932342</v>
+        <v>0.9887525588166127</v>
       </c>
       <c r="F19">
-        <v>1.031141064614558</v>
+        <v>0.9845593409647704</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030477408333477</v>
+        <v>1.037587917446761</v>
       </c>
       <c r="J19">
-        <v>1.027590294097778</v>
+        <v>1.006184801243552</v>
       </c>
       <c r="K19">
-        <v>1.026720993249568</v>
+        <v>1.003523367645931</v>
       </c>
       <c r="L19">
-        <v>1.025709020713578</v>
+        <v>1.00270270070456</v>
       </c>
       <c r="M19">
-        <v>1.034467412578434</v>
+        <v>0.9985840244664509</v>
       </c>
       <c r="N19">
-        <v>1.029049590181651</v>
+        <v>1.007613699072328</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021087325519392</v>
+        <v>0.9767088039420583</v>
       </c>
       <c r="D20">
-        <v>1.023085011437475</v>
+        <v>0.9882161694530495</v>
       </c>
       <c r="E20">
-        <v>1.022073173017454</v>
+        <v>0.9874057400187533</v>
       </c>
       <c r="F20">
-        <v>1.030738706044831</v>
+        <v>0.9825818324917958</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030427760658627</v>
+        <v>1.037198838025861</v>
       </c>
       <c r="J20">
-        <v>1.02738555404532</v>
+        <v>1.005168056651087</v>
       </c>
       <c r="K20">
-        <v>1.026504298618483</v>
+        <v>1.002469437127006</v>
       </c>
       <c r="L20">
-        <v>1.025496098162567</v>
+        <v>1.001673719296147</v>
       </c>
       <c r="M20">
-        <v>1.034130730230855</v>
+        <v>0.9969380336927123</v>
       </c>
       <c r="N20">
-        <v>1.028844559374834</v>
+        <v>1.00659551058592</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020016563656862</v>
+        <v>0.9710344284515839</v>
       </c>
       <c r="D21">
-        <v>1.02216735680369</v>
+        <v>0.9836788393471791</v>
       </c>
       <c r="E21">
-        <v>1.021167671917434</v>
+        <v>0.9829524194849188</v>
       </c>
       <c r="F21">
-        <v>1.029431173719434</v>
+        <v>0.9760250609023539</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030264408885728</v>
+        <v>1.035893770563972</v>
       </c>
       <c r="J21">
-        <v>1.026719563781765</v>
+        <v>1.001795171162845</v>
       </c>
       <c r="K21">
-        <v>1.025799746829142</v>
+        <v>0.9989761618750452</v>
       </c>
       <c r="L21">
-        <v>1.024803899016931</v>
+        <v>0.9982641247678129</v>
       </c>
       <c r="M21">
-        <v>1.03303593117946</v>
+        <v>0.9914753408823529</v>
       </c>
       <c r="N21">
-        <v>1.028177623328715</v>
+        <v>1.003217835213408</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019343684031876</v>
+        <v>0.9673785833453123</v>
       </c>
       <c r="D22">
-        <v>1.021591048065582</v>
+        <v>0.9807637318642669</v>
       </c>
       <c r="E22">
-        <v>1.02059907611849</v>
+        <v>0.9800923584879372</v>
       </c>
       <c r="F22">
-        <v>1.028609515351019</v>
+        <v>0.9717992313996717</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030160216098297</v>
+        <v>1.035041415124764</v>
       </c>
       <c r="J22">
-        <v>1.026300556332925</v>
+        <v>0.9996204690805537</v>
       </c>
       <c r="K22">
-        <v>1.025356727658614</v>
+        <v>0.9967261434766291</v>
       </c>
       <c r="L22">
-        <v>1.024368714953029</v>
+        <v>0.9960687814006051</v>
       </c>
       <c r="M22">
-        <v>1.032347424756798</v>
+        <v>0.9879508447893727</v>
       </c>
       <c r="N22">
-        <v>1.027758020841237</v>
+        <v>1.001040044804719</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01970035681125</v>
+        <v>0.9693252653734328</v>
       </c>
       <c r="D23">
-        <v>1.021896497594479</v>
+        <v>0.9823151891899321</v>
       </c>
       <c r="E23">
-        <v>1.020900430079156</v>
+        <v>0.981614416259275</v>
       </c>
       <c r="F23">
-        <v>1.029045050447016</v>
+        <v>0.9740495841275102</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03021559150378</v>
+        <v>1.035496350138334</v>
       </c>
       <c r="J23">
-        <v>1.026522705758445</v>
+        <v>1.000778603549248</v>
       </c>
       <c r="K23">
-        <v>1.025591583995754</v>
+        <v>0.9979241693795929</v>
       </c>
       <c r="L23">
-        <v>1.024599411251517</v>
+        <v>0.9972376213744468</v>
       </c>
       <c r="M23">
-        <v>1.032712430480637</v>
+        <v>0.9898280683449086</v>
       </c>
       <c r="N23">
-        <v>1.027980485744421</v>
+        <v>1.002199823957199</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021105282891948</v>
+        <v>0.9768025051038428</v>
       </c>
       <c r="D24">
-        <v>1.023100407102839</v>
+        <v>0.988291224885376</v>
       </c>
       <c r="E24">
-        <v>1.022088366136875</v>
+        <v>0.9874794231794608</v>
       </c>
       <c r="F24">
-        <v>1.030760634458288</v>
+        <v>0.9826900850511273</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030430474038488</v>
+        <v>1.037220193625217</v>
       </c>
       <c r="J24">
-        <v>1.027396714784776</v>
+        <v>1.005223722493749</v>
       </c>
       <c r="K24">
-        <v>1.026516109797899</v>
+        <v>1.002527127860048</v>
       </c>
       <c r="L24">
-        <v>1.025507703408179</v>
+        <v>1.001730040714445</v>
       </c>
       <c r="M24">
-        <v>1.034149081925602</v>
+        <v>0.9970281577908919</v>
       </c>
       <c r="N24">
-        <v>1.02885573596382</v>
+        <v>1.006651255480463</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022737130649063</v>
+        <v>0.9851234091658658</v>
       </c>
       <c r="D25">
-        <v>1.024500303546244</v>
+        <v>0.9949734426954482</v>
       </c>
       <c r="E25">
-        <v>1.023470036432208</v>
+        <v>0.9940418047666991</v>
       </c>
       <c r="F25">
-        <v>1.032753393243794</v>
+        <v>0.9923014108661241</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030673346376403</v>
+        <v>1.039088736061718</v>
       </c>
       <c r="J25">
-        <v>1.028409742737421</v>
+        <v>1.010162015706154</v>
       </c>
       <c r="K25">
-        <v>1.027588773211445</v>
+        <v>1.007650293895605</v>
       </c>
       <c r="L25">
-        <v>1.026561826235443</v>
+        <v>1.006733323602163</v>
       </c>
       <c r="M25">
-        <v>1.035815528029309</v>
+        <v>1.005020424814356</v>
       </c>
       <c r="N25">
-        <v>1.029870202532355</v>
+        <v>1.011596561635659</v>
       </c>
     </row>
   </sheetData>
